--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T17:03:44+00:00</t>
+    <t>2021-12-10T20:06:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T20:06:08+00:00</t>
+    <t>2022-01-10T15:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T15:11:55+00:00</t>
+    <t>2022-01-25T14:39:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -614,10 +614,10 @@
     <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
   </si>
   <si>
-    <t>Precise type of clinical document.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-doc-typecodes</t>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://worldhealthorganization.github.io/ddcc/ValueSet/DDCC-QR-Type-ValueSet</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -658,10 +658,13 @@
     <t>Key metadata element describing the the category or classification of the document. This is a broader perspective that groups similar documents based on how they would be used. This is a primary key used in searching.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://worldhealthorganization.github.io/ddcc/ValueSet/DDCC-QR-Category-Usage-ValueSet</t>
+    <t>example</t>
+  </si>
+  <si>
+    <t>High-level kind of a clinical document at a macro level.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
   </si>
   <si>
     <t>Composition.class</t>
@@ -1401,9 +1404,6 @@
   </si>
   <si>
     <t>An event can further specialize the act inherent in the type, such as  where it is simply "Procedure Report" and the procedure was a "colonoscopy". If one or more event codes are included, they shall not conflict with the values inherent in the class or type elements as such a conflict would create an ambiguous situation.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>This list of codes represents the main clinical acts being documented.</t>
@@ -1895,7 +1895,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="74.26171875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="85.0234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="76.83203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -3603,7 +3603,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>188</v>
       </c>
@@ -3613,13 +3613,13 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
@@ -3663,11 +3663,9 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="X15" t="s" s="2">
         <v>193</v>
       </c>
+      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
         <v>194</v>
       </c>
@@ -3723,7 +3721,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>202</v>
       </c>
@@ -3733,13 +3731,13 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -3785,9 +3783,11 @@
       <c r="W16" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="X16" s="2"/>
+      <c r="X16" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="Y16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>79</v>
@@ -3823,13 +3823,13 @@
         <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>199</v>
@@ -3838,12 +3838,12 @@
         <v>79</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3866,13 +3866,13 @@
         <v>92</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3923,7 +3923,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>80</v>
@@ -3938,34 +3938,34 @@
         <v>103</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3984,16 +3984,16 @@
         <v>92</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -4043,7 +4043,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>80</v>
@@ -4058,19 +4058,19 @@
         <v>103</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>79</v>
@@ -4081,7 +4081,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4104,16 +4104,16 @@
         <v>92</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4163,7 +4163,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>80</v>
@@ -4178,30 +4178,30 @@
         <v>103</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4224,16 +4224,16 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4283,7 +4283,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>80</v>
@@ -4298,30 +4298,30 @@
         <v>103</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4344,16 +4344,16 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4403,7 +4403,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>80</v>
@@ -4418,13 +4418,13 @@
         <v>103</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
@@ -4441,7 +4441,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4464,16 +4464,16 @@
         <v>92</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4523,7 +4523,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>80</v>
@@ -4541,10 +4541,10 @@
         <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
@@ -4556,12 +4556,12 @@
         <v>79</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4587,10 +4587,10 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4641,7 +4641,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>80</v>
@@ -4662,7 +4662,7 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4708,7 +4708,7 @@
         <v>138</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>140</v>
@@ -4761,7 +4761,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>80</v>
@@ -4782,7 +4782,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4799,11 +4799,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4825,10 +4825,10 @@
         <v>137</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>140</v>
@@ -4883,7 +4883,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>80</v>
@@ -4921,7 +4921,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4947,13 +4947,13 @@
         <v>111</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4982,10 +4982,10 @@
         <v>171</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
@@ -5003,7 +5003,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>91</v>
@@ -5021,10 +5021,10 @@
         <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5036,12 +5036,12 @@
         <v>79</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5064,13 +5064,13 @@
         <v>92</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5121,7 +5121,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>91</v>
@@ -5139,10 +5139,10 @@
         <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5154,12 +5154,12 @@
         <v>79</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5185,16 +5185,16 @@
         <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5243,7 +5243,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>80</v>
@@ -5264,7 +5264,7 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5273,15 +5273,15 @@
         <v>79</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5307,16 +5307,16 @@
         <v>189</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5341,13 +5341,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5365,7 +5365,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>80</v>
@@ -5383,27 +5383,27 @@
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5411,10 +5411,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>321</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>92</v>
@@ -5426,13 +5426,13 @@
         <v>92</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5471,17 +5471,17 @@
         <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>91</v>
@@ -5499,10 +5499,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5519,7 +5519,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5545,10 +5545,10 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5599,7 +5599,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>80</v>
@@ -5620,7 +5620,7 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5637,7 +5637,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5666,7 +5666,7 @@
         <v>138</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>140</v>
@@ -5719,7 +5719,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>80</v>
@@ -5740,7 +5740,7 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5757,11 +5757,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5783,10 +5783,10 @@
         <v>137</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>140</v>
@@ -5841,7 +5841,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>80</v>
@@ -5879,7 +5879,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5902,13 +5902,13 @@
         <v>92</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5959,7 +5959,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>91</v>
@@ -5977,27 +5977,27 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6020,16 +6020,16 @@
         <v>92</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6055,11 +6055,11 @@
         <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>79</v>
@@ -6077,7 +6077,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>80</v>
@@ -6095,13 +6095,13 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6110,15 +6110,15 @@
         <v>79</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>79</v>
@@ -6128,7 +6128,7 @@
         <v>91</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>92</v>
@@ -6140,13 +6140,13 @@
         <v>92</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6197,7 +6197,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>91</v>
@@ -6215,10 +6215,10 @@
         <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6235,7 +6235,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6261,10 +6261,10 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6315,7 +6315,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>80</v>
@@ -6336,7 +6336,7 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6353,7 +6353,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6382,7 +6382,7 @@
         <v>138</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>140</v>
@@ -6435,7 +6435,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>80</v>
@@ -6456,7 +6456,7 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6473,11 +6473,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6499,10 +6499,10 @@
         <v>137</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>140</v>
@@ -6557,7 +6557,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>80</v>
@@ -6595,7 +6595,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6618,13 +6618,13 @@
         <v>92</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6675,7 +6675,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>91</v>
@@ -6693,27 +6693,27 @@
         <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6739,10 +6739,10 @@
         <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6793,7 +6793,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>80</v>
@@ -6814,7 +6814,7 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -6831,7 +6831,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6860,7 +6860,7 @@
         <v>138</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>140</v>
@@ -6901,19 +6901,19 @@
         <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>80</v>
@@ -6934,7 +6934,7 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -6951,7 +6951,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6977,14 +6977,14 @@
         <v>111</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -6997,7 +6997,7 @@
         <v>79</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>79</v>
@@ -7012,10 +7012,10 @@
         <v>171</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7033,7 +7033,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>80</v>
@@ -7054,7 +7054,7 @@
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -7063,7 +7063,7 @@
         <v>79</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>79</v>
@@ -7071,7 +7071,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7097,14 +7097,14 @@
         <v>111</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7117,7 +7117,7 @@
         <v>79</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>79</v>
@@ -7153,7 +7153,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>80</v>
@@ -7174,7 +7174,7 @@
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7191,7 +7191,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7214,19 +7214,19 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7275,7 +7275,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>80</v>
@@ -7296,7 +7296,7 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7305,7 +7305,7 @@
         <v>79</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>79</v>
@@ -7313,7 +7313,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7336,19 +7336,19 @@
         <v>92</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7361,7 +7361,7 @@
         <v>79</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>79</v>
@@ -7397,7 +7397,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>80</v>
@@ -7418,7 +7418,7 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7427,7 +7427,7 @@
         <v>79</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>79</v>
@@ -7435,7 +7435,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7458,19 +7458,19 @@
         <v>92</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7519,7 +7519,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>80</v>
@@ -7540,7 +7540,7 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7557,7 +7557,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7580,19 +7580,19 @@
         <v>92</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7641,7 +7641,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>80</v>
@@ -7662,7 +7662,7 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7679,7 +7679,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7705,14 +7705,14 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7725,7 +7725,7 @@
         <v>79</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>79</v>
@@ -7761,7 +7761,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>80</v>
@@ -7782,7 +7782,7 @@
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7799,7 +7799,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7822,17 +7822,17 @@
         <v>92</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -7881,7 +7881,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>80</v>
@@ -7902,7 +7902,7 @@
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7919,7 +7919,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7942,16 +7942,16 @@
         <v>92</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7962,7 +7962,7 @@
         <v>79</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>79</v>
@@ -7980,10 +7980,10 @@
         <v>115</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -8001,7 +8001,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>80</v>
@@ -8019,13 +8019,13 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -8034,15 +8034,15 @@
         <v>79</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>79</v>
@@ -8064,13 +8064,13 @@
         <v>92</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8121,7 +8121,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>91</v>
@@ -8139,10 +8139,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8159,7 +8159,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8185,10 +8185,10 @@
         <v>93</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8239,7 +8239,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>80</v>
@@ -8260,7 +8260,7 @@
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8277,7 +8277,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8306,7 +8306,7 @@
         <v>138</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>140</v>
@@ -8359,7 +8359,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>80</v>
@@ -8380,7 +8380,7 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8397,11 +8397,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8423,10 +8423,10 @@
         <v>137</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>140</v>
@@ -8481,7 +8481,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>80</v>
@@ -8519,7 +8519,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8542,13 +8542,13 @@
         <v>92</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8599,7 +8599,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>91</v>
@@ -8617,27 +8617,27 @@
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8663,10 +8663,10 @@
         <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8717,7 +8717,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>80</v>
@@ -8738,7 +8738,7 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8755,7 +8755,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8784,7 +8784,7 @@
         <v>138</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>140</v>
@@ -8825,19 +8825,19 @@
         <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>80</v>
@@ -8858,7 +8858,7 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8875,7 +8875,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8901,14 +8901,14 @@
         <v>111</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -8921,7 +8921,7 @@
         <v>79</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>79</v>
@@ -8936,10 +8936,10 @@
         <v>171</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -8957,7 +8957,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>80</v>
@@ -8978,7 +8978,7 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -8987,7 +8987,7 @@
         <v>79</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>79</v>
@@ -8995,7 +8995,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9021,14 +9021,14 @@
         <v>111</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9041,7 +9041,7 @@
         <v>79</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>79</v>
@@ -9077,7 +9077,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>80</v>
@@ -9098,7 +9098,7 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9115,7 +9115,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9138,19 +9138,19 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9199,7 +9199,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>80</v>
@@ -9220,7 +9220,7 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9229,7 +9229,7 @@
         <v>79</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>79</v>
@@ -9237,7 +9237,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9260,19 +9260,19 @@
         <v>92</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9285,7 +9285,7 @@
         <v>79</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>79</v>
@@ -9321,7 +9321,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>80</v>
@@ -9342,7 +9342,7 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9351,7 +9351,7 @@
         <v>79</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>79</v>
@@ -9359,7 +9359,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9382,19 +9382,19 @@
         <v>92</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9443,7 +9443,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>80</v>
@@ -9464,7 +9464,7 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9481,7 +9481,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9504,19 +9504,19 @@
         <v>92</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9565,7 +9565,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>80</v>
@@ -9586,7 +9586,7 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9603,7 +9603,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9629,14 +9629,14 @@
         <v>93</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9649,7 +9649,7 @@
         <v>79</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>79</v>
@@ -9685,7 +9685,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>80</v>
@@ -9706,7 +9706,7 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9723,7 +9723,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9746,17 +9746,17 @@
         <v>92</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9805,7 +9805,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>80</v>
@@ -9826,7 +9826,7 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9843,7 +9843,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9866,16 +9866,16 @@
         <v>92</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9886,7 +9886,7 @@
         <v>79</v>
       </c>
       <c r="R67" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>79</v>
@@ -9904,10 +9904,10 @@
         <v>115</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -9925,7 +9925,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>80</v>
@@ -9943,13 +9943,13 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -9958,15 +9958,15 @@
         <v>79</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>79</v>
@@ -9988,13 +9988,13 @@
         <v>92</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10045,7 +10045,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>91</v>
@@ -10063,10 +10063,10 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10083,7 +10083,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10109,10 +10109,10 @@
         <v>93</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10163,7 +10163,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>80</v>
@@ -10184,7 +10184,7 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10201,7 +10201,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10230,7 +10230,7 @@
         <v>138</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>140</v>
@@ -10283,7 +10283,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>80</v>
@@ -10304,7 +10304,7 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10321,11 +10321,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10347,10 +10347,10 @@
         <v>137</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>140</v>
@@ -10405,7 +10405,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>80</v>
@@ -10443,7 +10443,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10466,13 +10466,13 @@
         <v>92</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10523,7 +10523,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>91</v>
@@ -10541,27 +10541,27 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10587,10 +10587,10 @@
         <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10641,7 +10641,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>80</v>
@@ -10662,7 +10662,7 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10679,7 +10679,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10708,7 +10708,7 @@
         <v>138</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>140</v>
@@ -10749,19 +10749,19 @@
         <v>79</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>80</v>
@@ -10782,7 +10782,7 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
@@ -10799,7 +10799,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10825,14 +10825,14 @@
         <v>111</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -10845,7 +10845,7 @@
         <v>79</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>79</v>
@@ -10860,10 +10860,10 @@
         <v>171</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10881,7 +10881,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>80</v>
@@ -10902,7 +10902,7 @@
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -10911,7 +10911,7 @@
         <v>79</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AP75" t="s" s="2">
         <v>79</v>
@@ -10919,7 +10919,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10945,14 +10945,14 @@
         <v>111</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -10965,7 +10965,7 @@
         <v>79</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>79</v>
@@ -11001,7 +11001,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>80</v>
@@ -11022,7 +11022,7 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -11039,7 +11039,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11062,19 +11062,19 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11123,7 +11123,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>80</v>
@@ -11144,7 +11144,7 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -11153,7 +11153,7 @@
         <v>79</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>79</v>
@@ -11161,7 +11161,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11184,19 +11184,19 @@
         <v>92</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11209,7 +11209,7 @@
         <v>79</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>79</v>
@@ -11245,7 +11245,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>80</v>
@@ -11266,7 +11266,7 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11275,7 +11275,7 @@
         <v>79</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>79</v>
@@ -11283,7 +11283,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11306,19 +11306,19 @@
         <v>92</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11367,7 +11367,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>80</v>
@@ -11388,7 +11388,7 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
@@ -11405,7 +11405,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11428,19 +11428,19 @@
         <v>92</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11489,7 +11489,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>80</v>
@@ -11510,7 +11510,7 @@
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
@@ -11527,7 +11527,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11553,14 +11553,14 @@
         <v>93</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11573,7 +11573,7 @@
         <v>79</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>79</v>
@@ -11609,7 +11609,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>80</v>
@@ -11630,7 +11630,7 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
@@ -11647,7 +11647,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11670,17 +11670,17 @@
         <v>92</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11729,7 +11729,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>80</v>
@@ -11750,7 +11750,7 @@
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
@@ -11767,7 +11767,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11790,16 +11790,16 @@
         <v>92</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11810,7 +11810,7 @@
         <v>79</v>
       </c>
       <c r="R83" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>79</v>
@@ -11828,10 +11828,10 @@
         <v>115</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>79</v>
@@ -11849,7 +11849,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>80</v>
@@ -11867,13 +11867,13 @@
         <v>79</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -11882,12 +11882,12 @@
         <v>79</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11910,16 +11910,16 @@
         <v>92</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11969,7 +11969,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>80</v>
@@ -11990,7 +11990,7 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -12007,7 +12007,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12033,10 +12033,10 @@
         <v>93</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12087,7 +12087,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>80</v>
@@ -12108,7 +12108,7 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12125,7 +12125,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12154,7 +12154,7 @@
         <v>138</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>140</v>
@@ -12207,7 +12207,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>80</v>
@@ -12228,7 +12228,7 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
@@ -12245,11 +12245,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12271,10 +12271,10 @@
         <v>137</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>140</v>
@@ -12329,7 +12329,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>80</v>
@@ -12367,7 +12367,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12390,13 +12390,13 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12447,7 +12447,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>80</v>
@@ -12462,19 +12462,19 @@
         <v>103</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>79</v>
@@ -12485,7 +12485,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12511,13 +12511,13 @@
         <v>189</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12543,7 +12543,7 @@
         <v>79</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>445</v>
+        <v>207</v>
       </c>
       <c r="X89" t="s" s="2">
         <v>446</v>
@@ -12567,7 +12567,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>80</v>
@@ -12779,7 +12779,7 @@
         <v>79</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>445</v>
+        <v>207</v>
       </c>
       <c r="X91" t="s" s="2">
         <v>462</v>
@@ -12901,7 +12901,7 @@
         <v>79</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>445</v>
+        <v>207</v>
       </c>
       <c r="X92" t="s" s="2">
         <v>473</v>
@@ -13061,13 +13061,13 @@
         <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T14:39:04+00:00</t>
+    <t>2022-01-31T16:29:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T16:29:45+00:00</t>
+    <t>2022-01-31T20:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T20:10:04+00:00</t>
+    <t>2022-02-11T00:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T00:28:19+00:00</t>
+    <t>2022-02-11T01:45:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T01:45:45+00:00</t>
+    <t>2022-02-13T22:11:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-13T22:11:31+00:00</t>
+    <t>2022-03-01T19:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T19:29:42+00:00</t>
+    <t>2022-03-04T23:14:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T23:14:40+00:00</t>
+    <t>2022-03-05T00:52:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T00:52:55+00:00</t>
+    <t>2022-03-05T01:03:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:03:34+00:00</t>
+    <t>2022-03-05T01:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:09:46+00:00</t>
+    <t>2022-03-18T16:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T16:50:55+00:00</t>
+    <t>2022-03-19T18:10:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:10:29+00:00</t>
+    <t>2022-03-19T18:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:27:00+00:00</t>
+    <t>2022-03-20T18:26:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T18:26:18+00:00</t>
+    <t>2022-03-20T19:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T19:00:26+00:00</t>
+    <t>2022-03-21T17:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T17:45:13+00:00</t>
+    <t>2022-03-21T18:09:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T18:09:33+00:00</t>
+    <t>2022-03-22T20:54:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:54:15+00:00</t>
+    <t>2022-03-23T00:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:01:05+00:00</t>
+    <t>2022-03-23T00:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:19:03+00:00</t>
+    <t>2022-03-23T00:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:33:43+00:00</t>
+    <t>2022-03-23T18:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T18:40:06+00:00</t>
+    <t>2022-03-23T19:11:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:11:09+00:00</t>
+    <t>2022-03-23T19:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:27:55+00:00</t>
+    <t>2022-03-23T20:20:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:20:45+00:00</t>
+    <t>2022-03-23T20:39:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:39:07+00:00</t>
+    <t>2022-03-23T21:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T21:03:35+00:00</t>
+    <t>2022-03-24T19:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:03:35+00:00</t>
+    <t>2022-03-24T19:25:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:25:05+00:00</t>
+    <t>2022-03-24T20:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:10:48+00:00</t>
+    <t>2022-03-24T20:26:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:26:37+00:00</t>
+    <t>2022-03-26T21:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:07:52+00:00</t>
+    <t>2022-03-26T21:44:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:44:34+00:00</t>
+    <t>2022-03-26T21:58:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:58:42+00:00</t>
+    <t>2022-03-26T22:00:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T22:00:49+00:00</t>
+    <t>2022-03-28T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T14:06:51+00:00</t>
+    <t>2022-03-28T17:18:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T17:18:58+00:00</t>
+    <t>2022-03-28T18:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T18:48:26+00:00</t>
+    <t>2022-03-28T20:08:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T20:08:43+00:00</t>
+    <t>2022-03-28T23:34:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:34:19+00:00</t>
+    <t>2022-03-28T23:45:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:45:02+00:00</t>
+    <t>2022-03-28T23:47:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:47:33+00:00</t>
+    <t>2022-03-29T00:49:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T00:49:23+00:00</t>
+    <t>2022-03-29T01:03:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:03:03+00:00</t>
+    <t>2022-03-29T01:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:33:50+00:00</t>
+    <t>2022-03-29T22:51:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T22:51:35+00:00</t>
+    <t>2022-03-30T04:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T04:10:02+00:00</t>
+    <t>2022-03-30T05:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:07:06+00:00</t>
+    <t>2022-03-30T05:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:24:10+00:00</t>
+    <t>2022-03-30T15:00:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T15:00:01+00:00</t>
+    <t>2022-03-30T20:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T20:32:02+00:00</t>
+    <t>2022-03-31T03:49:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T03:49:14+00:00</t>
+    <t>2022-03-31T04:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:31:26+00:00</t>
+    <t>2022-03-31T04:46:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:46:55+00:00</t>
+    <t>2022-03-31T06:22:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:22:16+00:00</t>
+    <t>2022-03-31T06:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:42:10+00:00</t>
+    <t>2022-04-26T17:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T17:07:52+00:00</t>
+    <t>2022-05-27T14:27:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T14:27:29+00:00</t>
+    <t>2022-06-01T13:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3611" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3611" uniqueCount="491">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T13:01:08+00:00</t>
+    <t>2022-09-27T20:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -298,569 +298,573 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>DocumentReference.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>DocumentReference.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>DocumentReference.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>DocumentReference.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>DocumentReference.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>DocumentReference.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>DocumentReference.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>DocumentReference.masterIdentifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Master Version Specific Identifier</t>
+  </si>
+  <si>
+    <t>Document identifier as assigned by the source of the document. This identifier is specific to this version of the document. This unique identifier may be used elsewhere to identify this version of the document.</t>
+  </si>
+  <si>
+    <t>CDA Document Id extension and root.</t>
+  </si>
+  <si>
+    <t>The structure and format of this Id shall be consistent with the specification corresponding to the formatCode attribute. (e.g. for a DICOM standard document a 64-character numeric UID, for an HL7 CDA format a serialization of the CDA Document Id extension and root in the form "oid^extension", where OID is a 64 digits max, and the Id is a 16 UTF-8 char max. If the OID is coded without the extension then the '^' character shall not be included.).</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>Composition.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>TXA-12</t>
+  </si>
+  <si>
+    <t>DocumentEntry.uniqueId</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier</t>
+  </si>
+  <si>
+    <t>Other identifiers for the document</t>
+  </si>
+  <si>
+    <t>Other identifiers associated with the document, including version independent identifiers.</t>
+  </si>
+  <si>
+    <t>.id / .setId</t>
+  </si>
+  <si>
+    <t>TXA-16?</t>
+  </si>
+  <si>
+    <t>DocumentEntry.entryUUID</t>
+  </si>
+  <si>
+    <t>DocumentReference.status</t>
+  </si>
+  <si>
+    <t>current | superseded | entered-in-error</t>
+  </si>
+  <si>
+    <t>The status of this document reference.</t>
+  </si>
+  <si>
+    <t>This is the status of the DocumentReference object, which might be independent from the docStatus element.
+This element is labeled as a modifier because the status contains the codes that mark the document or reference as not currently valid.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of the document reference.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/document-reference-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>interim: .completionCode="IN" &amp; ./statusCode[isNormalDatatype()]="active";  final: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and not(./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseDocument", code) and isNormalAct()]);  amended: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and ./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseDocument", code) and isNormalAct() and statusCode="completed"];  withdrawn : .completionCode=NI &amp;&amp;  ./statusCode[isNormalDatatype()]="obsolete"</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>TXA-19</t>
+  </si>
+  <si>
+    <t>DocumentEntry.availabilityStatus</t>
+  </si>
+  <si>
+    <t>DocumentReference.docStatus</t>
+  </si>
+  <si>
+    <t>preliminary | final | amended | entered-in-error</t>
+  </si>
+  <si>
+    <t>The status of the underlying document.</t>
+  </si>
+  <si>
+    <t>The document that is pointed to might be in various lifecycle states.</t>
+  </si>
+  <si>
+    <t>Status of the underlying document.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/composition-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Composition.status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>TXA-17</t>
+  </si>
+  <si>
+    <t>DocumentReference.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Kind of document (LOINC if possible)</t>
+  </si>
+  <si>
+    <t>Specifies the particular kind of document referenced  (e.g. History and Physical, Discharge Summary, Progress Note). This usually equates to the purpose of making the document referenced.</t>
+  </si>
+  <si>
+    <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://worldhealthorganization.github.io/ddcc/ValueSet/DDCC-QR-Type-ValueSet</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>Composition.type</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/code/@code 
+The typeCode should be mapped from the ClinicalDocument/code element to a set of document type codes configured in the affinity domain. One suggested coding system to use for typeCode is LOINC, in which case the mapping step can be omitted.</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>TXA-2</t>
+  </si>
+  <si>
+    <t>DocumentEntry.type</t>
+  </si>
+  <si>
+    <t>DocumentReference.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">claxs
+</t>
+  </si>
+  <si>
+    <t>Categorization of document</t>
+  </si>
+  <si>
+    <t>A categorization for the type of document referenced - helps for indexing and searching. This may be implied by or derived from the code specified in the DocumentReference.type.</t>
+  </si>
+  <si>
+    <t>Key metadata element describing the the category or classification of the document. This is a broader perspective that groups similar documents based on how they would be used. This is a primary key used in searching.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>High-level kind of a clinical document at a macro level.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
+  </si>
+  <si>
+    <t>Composition.class</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>Derived from a mapping of /ClinicalDocument/code/@code to an Affinity Domain specified coded value to use and coding system. Affinity Domains are encouraged to use the appropriate value for Type of Service, based on the LOINC Type of Service (see Page 53 of the LOINC User's Manual). Must be consistent with /ClinicalDocument/code/@code</t>
+  </si>
+  <si>
+    <t>DocumentEntry.class</t>
+  </si>
+  <si>
+    <t>DocumentReference.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCPatient)
+</t>
+  </si>
+  <si>
+    <t>Who/what is the subject of the document</t>
+  </si>
+  <si>
+    <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>Composition.subject</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="SBJ"].role[typeCode="PAT"]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/recordTarget/</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>PID-3 (No standard way to define a Practitioner or Group subject in HL7 v2 MDM message)</t>
+  </si>
+  <si>
+    <t>DocumentEntry.patientId</t>
+  </si>
+  <si>
+    <t>DocumentReference.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indexed
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When this document reference was created</t>
+  </si>
+  <si>
+    <t>When the document reference was created.</t>
+  </si>
+  <si>
+    <t>Referencing/indexing time is used for tracking, organizing versions and searching.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>Composition.date</t>
+  </si>
+  <si>
+    <t>.availabilityTime[type="TS"]</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>DocumentReference.author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Device|Patient|RelatedPerson)
+</t>
+  </si>
+  <si>
+    <t>Who and/or what authored the document</t>
+  </si>
+  <si>
+    <t>Identifies who is responsible for adding the information to the document.</t>
+  </si>
+  <si>
+    <t>Not necessarily who did the actual data entry (i.e. typist) or who was the source (informant).</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>Composition.author</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="AUT"].role[classCode="ASSIGNED"]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/author</t>
+  </si>
+  <si>
+    <t>TXA-9 (No standard way to indicate a Device in HL7 v2 MDM message)</t>
+  </si>
+  <si>
+    <t>DocumentEntry.author</t>
+  </si>
+  <si>
+    <t>DocumentReference.authenticator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCOrganization)
+</t>
+  </si>
+  <si>
+    <t>Who/what authenticated the document</t>
+  </si>
+  <si>
+    <t>Which person or organization authenticates that this document is valid.</t>
+  </si>
+  <si>
+    <t>Represents a participant within the author institution who has legally authenticated or attested the document. Legal authentication implies that a document has been signed manually or electronically by the legal Authenticator.</t>
+  </si>
+  <si>
+    <t>Composition.attester</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="AUTHEN"].role[classCode="ASSIGNED"]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/legalAuthenticator</t>
+  </si>
+  <si>
+    <t>FiveWs.witness</t>
+  </si>
+  <si>
+    <t>TXA-10</t>
+  </si>
+  <si>
+    <t>DocumentEntry.legalAuthenticator</t>
+  </si>
+  <si>
+    <t>DocumentReference.custodian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization which maintains the document</t>
+  </si>
+  <si>
+    <t>Identifies the organization or group who is responsible for ongoing maintenance of and access to the document.</t>
+  </si>
+  <si>
+    <t>Identifies the logical organization (software system, vendor, or department) to go to find the current version, where to report issues, etc. This is different from the physical location (URL, disk drive, or server) of the document, which is the technical location of the document, which host may be delegated to the management of some other organization.</t>
+  </si>
+  <si>
+    <t>Composition.custodian</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="RCV"].role[classCode="CUST"].scoper[classCode="ORG" and determinerCode="INST"]</t>
+  </si>
+  <si>
+    <t>DocumentReference.relatesTo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Relationships to other documents</t>
+  </si>
+  <si>
+    <t>Relationships that this document has with other document references that already exist.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because documents that append to other documents are incomplete on their own.</t>
+  </si>
+  <si>
+    <t>Composition.relatesTo</t>
+  </si>
+  <si>
+    <t>.outboundRelationship</t>
+  </si>
+  <si>
+    <t>DocumentEntry Associations</t>
+  </si>
+  <si>
+    <t>DocumentReference.relatesTo.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>DocumentReference.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>DocumentReference.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>DocumentReference.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>DocumentReference.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>DocumentReference.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>DocumentReference.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>DocumentReference.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>DocumentReference.masterIdentifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Master Version Specific Identifier</t>
-  </si>
-  <si>
-    <t>Document identifier as assigned by the source of the document. This identifier is specific to this version of the document. This unique identifier may be used elsewhere to identify this version of the document.</t>
-  </si>
-  <si>
-    <t>CDA Document Id extension and root.</t>
-  </si>
-  <si>
-    <t>The structure and format of this Id shall be consistent with the specification corresponding to the formatCode attribute. (e.g. for a DICOM standard document a 64-character numeric UID, for an HL7 CDA format a serialization of the CDA Document Id extension and root in the form "oid^extension", where OID is a 64 digits max, and the Id is a 16 UTF-8 char max. If the OID is coded without the extension then the '^' character shall not be included.).</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>Composition.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>TXA-12</t>
-  </si>
-  <si>
-    <t>DocumentEntry.uniqueId</t>
-  </si>
-  <si>
-    <t>DocumentReference.identifier</t>
-  </si>
-  <si>
-    <t>Other identifiers for the document</t>
-  </si>
-  <si>
-    <t>Other identifiers associated with the document, including version independent identifiers.</t>
-  </si>
-  <si>
-    <t>.id / .setId</t>
-  </si>
-  <si>
-    <t>TXA-16?</t>
-  </si>
-  <si>
-    <t>DocumentEntry.entryUUID</t>
-  </si>
-  <si>
-    <t>DocumentReference.status</t>
-  </si>
-  <si>
-    <t>current | superseded | entered-in-error</t>
-  </si>
-  <si>
-    <t>The status of this document reference.</t>
-  </si>
-  <si>
-    <t>This is the status of the DocumentReference object, which might be independent from the docStatus element.
-This element is labeled as a modifier because the status contains the codes that mark the document or reference as not currently valid.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The status of the document reference.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/document-reference-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>interim: .completionCode="IN" &amp; ./statusCode[isNormalDatatype()]="active";  final: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and not(./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseDocument", code) and isNormalAct()]);  amended: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and ./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseDocument", code) and isNormalAct() and statusCode="completed"];  withdrawn : .completionCode=NI &amp;&amp;  ./statusCode[isNormalDatatype()]="obsolete"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>TXA-19</t>
-  </si>
-  <si>
-    <t>DocumentEntry.availabilityStatus</t>
-  </si>
-  <si>
-    <t>DocumentReference.docStatus</t>
-  </si>
-  <si>
-    <t>preliminary | final | amended | entered-in-error</t>
-  </si>
-  <si>
-    <t>The status of the underlying document.</t>
-  </si>
-  <si>
-    <t>The document that is pointed to might be in various lifecycle states.</t>
-  </si>
-  <si>
-    <t>Status of the underlying document.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/composition-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Composition.status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>TXA-17</t>
-  </si>
-  <si>
-    <t>DocumentReference.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Kind of document (LOINC if possible)</t>
-  </si>
-  <si>
-    <t>Specifies the particular kind of document referenced  (e.g. History and Physical, Discharge Summary, Progress Note). This usually equates to the purpose of making the document referenced.</t>
-  </si>
-  <si>
-    <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://worldhealthorganization.github.io/ddcc/ValueSet/DDCC-QR-Type-ValueSet</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>Composition.type</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/code/@code 
-The typeCode should be mapped from the ClinicalDocument/code element to a set of document type codes configured in the affinity domain. One suggested coding system to use for typeCode is LOINC, in which case the mapping step can be omitted.</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>TXA-2</t>
-  </si>
-  <si>
-    <t>DocumentEntry.type</t>
-  </si>
-  <si>
-    <t>DocumentReference.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">claxs
-</t>
-  </si>
-  <si>
-    <t>Categorization of document</t>
-  </si>
-  <si>
-    <t>A categorization for the type of document referenced - helps for indexing and searching. This may be implied by or derived from the code specified in the DocumentReference.type.</t>
-  </si>
-  <si>
-    <t>Key metadata element describing the the category or classification of the document. This is a broader perspective that groups similar documents based on how they would be used. This is a primary key used in searching.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>High-level kind of a clinical document at a macro level.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
-  </si>
-  <si>
-    <t>Composition.class</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>Derived from a mapping of /ClinicalDocument/code/@code to an Affinity Domain specified coded value to use and coding system. Affinity Domains are encouraged to use the appropriate value for Type of Service, based on the LOINC Type of Service (see Page 53 of the LOINC User's Manual). Must be consistent with /ClinicalDocument/code/@code</t>
-  </si>
-  <si>
-    <t>DocumentEntry.class</t>
-  </si>
-  <si>
-    <t>DocumentReference.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCPatient)
-</t>
-  </si>
-  <si>
-    <t>Who/what is the subject of the document</t>
-  </si>
-  <si>
-    <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>Composition.subject</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="SBJ"].role[typeCode="PAT"]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/recordTarget/</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>PID-3 (No standard way to define a Practitioner or Group subject in HL7 v2 MDM message)</t>
-  </si>
-  <si>
-    <t>DocumentEntry.patientId</t>
-  </si>
-  <si>
-    <t>DocumentReference.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indexed
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>When this document reference was created</t>
-  </si>
-  <si>
-    <t>When the document reference was created.</t>
-  </si>
-  <si>
-    <t>Referencing/indexing time is used for tracking, organizing versions and searching.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>Composition.date</t>
-  </si>
-  <si>
-    <t>.availabilityTime[type="TS"]</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>DocumentReference.author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Device|Patient|RelatedPerson)
-</t>
-  </si>
-  <si>
-    <t>Who and/or what authored the document</t>
-  </si>
-  <si>
-    <t>Identifies who is responsible for adding the information to the document.</t>
-  </si>
-  <si>
-    <t>Not necessarily who did the actual data entry (i.e. typist) or who was the source (informant).</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>Composition.author</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="AUT"].role[classCode="ASSIGNED"]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/author</t>
-  </si>
-  <si>
-    <t>TXA-9 (No standard way to indicate a Device in HL7 v2 MDM message)</t>
-  </si>
-  <si>
-    <t>DocumentEntry.author</t>
-  </si>
-  <si>
-    <t>DocumentReference.authenticator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCOrganization)
-</t>
-  </si>
-  <si>
-    <t>Who/what authenticated the document</t>
-  </si>
-  <si>
-    <t>Which person or organization authenticates that this document is valid.</t>
-  </si>
-  <si>
-    <t>Represents a participant within the author institution who has legally authenticated or attested the document. Legal authentication implies that a document has been signed manually or electronically by the legal Authenticator.</t>
-  </si>
-  <si>
-    <t>Composition.attester</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="AUTHEN"].role[classCode="ASSIGNED"]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/legalAuthenticator</t>
-  </si>
-  <si>
-    <t>FiveWs.witness</t>
-  </si>
-  <si>
-    <t>TXA-10</t>
-  </si>
-  <si>
-    <t>DocumentEntry.legalAuthenticator</t>
-  </si>
-  <si>
-    <t>DocumentReference.custodian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization which maintains the document</t>
-  </si>
-  <si>
-    <t>Identifies the organization or group who is responsible for ongoing maintenance of and access to the document.</t>
-  </si>
-  <si>
-    <t>Identifies the logical organization (software system, vendor, or department) to go to find the current version, where to report issues, etc. This is different from the physical location (URL, disk drive, or server) of the document, which is the technical location of the document, which host may be delegated to the management of some other organization.</t>
-  </si>
-  <si>
-    <t>Composition.custodian</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="RCV"].role[classCode="CUST"].scoper[classCode="ORG" and determinerCode="INST"]</t>
-  </si>
-  <si>
-    <t>DocumentReference.relatesTo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Relationships to other documents</t>
-  </si>
-  <si>
-    <t>Relationships that this document has with other document references that already exist.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because documents that append to other documents are incomplete on their own.</t>
-  </si>
-  <si>
-    <t>Composition.relatesTo</t>
-  </si>
-  <si>
-    <t>.outboundRelationship</t>
-  </si>
-  <si>
-    <t>DocumentEntry Associations</t>
-  </si>
-  <si>
-    <t>DocumentReference.relatesTo.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1872,47 +1876,47 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="50.828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="73.23046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="73.234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="74.26171875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="76.83203125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="74.265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="76.8359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="44.06640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="52.00390625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="52.0078125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="84.22265625" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="162.4453125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="84.2265625" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="162.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4584,13 +4588,13 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>93</v>
+        <v>273</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4641,7 +4645,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>80</v>
@@ -4662,7 +4666,7 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -4679,7 +4683,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4708,7 +4712,7 @@
         <v>138</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>140</v>
@@ -4761,7 +4765,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>80</v>
@@ -4782,7 +4786,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4799,11 +4803,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4825,10 +4829,10 @@
         <v>137</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>140</v>
@@ -4883,7 +4887,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>80</v>
@@ -4921,7 +4925,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4947,13 +4951,13 @@
         <v>111</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4982,10 +4986,10 @@
         <v>171</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
@@ -5003,7 +5007,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>91</v>
@@ -5021,10 +5025,10 @@
         <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5036,12 +5040,12 @@
         <v>79</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5064,13 +5068,13 @@
         <v>92</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5121,7 +5125,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>91</v>
@@ -5139,10 +5143,10 @@
         <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5154,12 +5158,12 @@
         <v>79</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5182,19 +5186,19 @@
         <v>92</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>93</v>
+        <v>273</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5243,7 +5247,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>80</v>
@@ -5264,7 +5268,7 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5273,15 +5277,15 @@
         <v>79</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5307,16 +5311,16 @@
         <v>189</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5344,10 +5348,10 @@
         <v>193</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5365,7 +5369,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>80</v>
@@ -5383,27 +5387,27 @@
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5411,7 +5415,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>81</v>
@@ -5429,10 +5433,10 @@
         <v>265</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5471,17 +5475,17 @@
         <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>91</v>
@@ -5499,10 +5503,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5519,7 +5523,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5542,13 +5546,13 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>93</v>
+        <v>273</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5599,7 +5603,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>80</v>
@@ -5620,7 +5624,7 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5637,7 +5641,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5666,7 +5670,7 @@
         <v>138</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>140</v>
@@ -5719,7 +5723,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>80</v>
@@ -5740,7 +5744,7 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5757,11 +5761,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5783,10 +5787,10 @@
         <v>137</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>140</v>
@@ -5841,7 +5845,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>80</v>
@@ -5879,7 +5883,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5902,13 +5906,13 @@
         <v>92</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5959,7 +5963,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>91</v>
@@ -5977,27 +5981,27 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6020,16 +6024,16 @@
         <v>92</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6059,7 +6063,7 @@
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>79</v>
@@ -6077,7 +6081,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>80</v>
@@ -6095,13 +6099,13 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6110,15 +6114,15 @@
         <v>79</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>79</v>
@@ -6143,10 +6147,10 @@
         <v>265</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6197,7 +6201,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>91</v>
@@ -6215,10 +6219,10 @@
         <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6235,7 +6239,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6258,13 +6262,13 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>93</v>
+        <v>273</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6315,7 +6319,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>80</v>
@@ -6336,7 +6340,7 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6353,7 +6357,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6382,7 +6386,7 @@
         <v>138</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>140</v>
@@ -6435,7 +6439,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>80</v>
@@ -6456,7 +6460,7 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6473,11 +6477,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6499,10 +6503,10 @@
         <v>137</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>140</v>
@@ -6557,7 +6561,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>80</v>
@@ -6595,7 +6599,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6618,13 +6622,13 @@
         <v>92</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6675,7 +6679,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>91</v>
@@ -6693,27 +6697,27 @@
         <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6736,13 +6740,13 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>93</v>
+        <v>273</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6793,7 +6797,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>80</v>
@@ -6814,7 +6818,7 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -6831,7 +6835,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6860,7 +6864,7 @@
         <v>138</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>140</v>
@@ -6901,19 +6905,19 @@
         <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>80</v>
@@ -6934,7 +6938,7 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -6951,7 +6955,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6977,14 +6981,14 @@
         <v>111</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -6997,7 +7001,7 @@
         <v>79</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>79</v>
@@ -7012,10 +7016,10 @@
         <v>171</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7033,7 +7037,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>80</v>
@@ -7054,7 +7058,7 @@
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -7063,7 +7067,7 @@
         <v>79</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>79</v>
@@ -7071,7 +7075,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7097,14 +7101,14 @@
         <v>111</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7117,7 +7121,7 @@
         <v>79</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>79</v>
@@ -7153,7 +7157,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>80</v>
@@ -7174,7 +7178,7 @@
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7191,7 +7195,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7214,19 +7218,19 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7275,7 +7279,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>80</v>
@@ -7296,7 +7300,7 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7305,7 +7309,7 @@
         <v>79</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>79</v>
@@ -7313,7 +7317,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7336,19 +7340,19 @@
         <v>92</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7361,7 +7365,7 @@
         <v>79</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>79</v>
@@ -7397,7 +7401,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>80</v>
@@ -7418,7 +7422,7 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7427,7 +7431,7 @@
         <v>79</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>79</v>
@@ -7435,7 +7439,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7458,19 +7462,19 @@
         <v>92</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7519,7 +7523,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>80</v>
@@ -7540,7 +7544,7 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7557,7 +7561,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7580,19 +7584,19 @@
         <v>92</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7641,7 +7645,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>80</v>
@@ -7662,7 +7666,7 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7679,7 +7683,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7702,17 +7706,17 @@
         <v>92</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>93</v>
+        <v>273</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7725,7 +7729,7 @@
         <v>79</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>79</v>
@@ -7761,7 +7765,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>80</v>
@@ -7782,7 +7786,7 @@
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7799,7 +7803,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7822,17 +7826,17 @@
         <v>92</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -7881,7 +7885,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>80</v>
@@ -7902,7 +7906,7 @@
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7919,7 +7923,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7942,16 +7946,16 @@
         <v>92</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7962,7 +7966,7 @@
         <v>79</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>79</v>
@@ -7980,10 +7984,10 @@
         <v>115</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -8001,7 +8005,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>80</v>
@@ -8019,13 +8023,13 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -8034,15 +8038,15 @@
         <v>79</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>79</v>
@@ -8067,10 +8071,10 @@
         <v>265</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8121,7 +8125,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>91</v>
@@ -8139,10 +8143,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8159,7 +8163,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8182,13 +8186,13 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>93</v>
+        <v>273</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8239,7 +8243,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>80</v>
@@ -8260,7 +8264,7 @@
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8277,7 +8281,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8306,7 +8310,7 @@
         <v>138</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>140</v>
@@ -8359,7 +8363,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>80</v>
@@ -8380,7 +8384,7 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8397,11 +8401,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8423,10 +8427,10 @@
         <v>137</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>140</v>
@@ -8481,7 +8485,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>80</v>
@@ -8519,7 +8523,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8542,13 +8546,13 @@
         <v>92</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8599,7 +8603,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>91</v>
@@ -8617,27 +8621,27 @@
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8660,13 +8664,13 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>93</v>
+        <v>273</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8717,7 +8721,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>80</v>
@@ -8738,7 +8742,7 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8755,7 +8759,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8784,7 +8788,7 @@
         <v>138</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>140</v>
@@ -8825,19 +8829,19 @@
         <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>80</v>
@@ -8858,7 +8862,7 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8875,7 +8879,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8901,14 +8905,14 @@
         <v>111</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -8921,7 +8925,7 @@
         <v>79</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>79</v>
@@ -8936,10 +8940,10 @@
         <v>171</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -8957,7 +8961,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>80</v>
@@ -8978,7 +8982,7 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -8987,7 +8991,7 @@
         <v>79</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>79</v>
@@ -8995,7 +8999,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9021,14 +9025,14 @@
         <v>111</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9041,7 +9045,7 @@
         <v>79</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>79</v>
@@ -9077,7 +9081,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>80</v>
@@ -9098,7 +9102,7 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9115,7 +9119,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9138,19 +9142,19 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9199,7 +9203,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>80</v>
@@ -9220,7 +9224,7 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9229,7 +9233,7 @@
         <v>79</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>79</v>
@@ -9237,7 +9241,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9260,19 +9264,19 @@
         <v>92</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9285,7 +9289,7 @@
         <v>79</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>79</v>
@@ -9321,7 +9325,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>80</v>
@@ -9342,7 +9346,7 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9351,7 +9355,7 @@
         <v>79</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>79</v>
@@ -9359,7 +9363,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9382,19 +9386,19 @@
         <v>92</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9443,7 +9447,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>80</v>
@@ -9464,7 +9468,7 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9481,7 +9485,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9504,19 +9508,19 @@
         <v>92</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9565,7 +9569,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>80</v>
@@ -9586,7 +9590,7 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9603,7 +9607,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9626,17 +9630,17 @@
         <v>92</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>93</v>
+        <v>273</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9649,7 +9653,7 @@
         <v>79</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>79</v>
@@ -9685,7 +9689,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>80</v>
@@ -9706,7 +9710,7 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9723,7 +9727,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9746,17 +9750,17 @@
         <v>92</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9805,7 +9809,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>80</v>
@@ -9826,7 +9830,7 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9843,7 +9847,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9866,16 +9870,16 @@
         <v>92</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9886,7 +9890,7 @@
         <v>79</v>
       </c>
       <c r="R67" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>79</v>
@@ -9904,10 +9908,10 @@
         <v>115</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -9925,7 +9929,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>80</v>
@@ -9943,13 +9947,13 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -9958,15 +9962,15 @@
         <v>79</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>79</v>
@@ -9991,10 +9995,10 @@
         <v>265</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10045,7 +10049,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>91</v>
@@ -10063,10 +10067,10 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10083,7 +10087,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10106,13 +10110,13 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>93</v>
+        <v>273</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10163,7 +10167,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>80</v>
@@ -10184,7 +10188,7 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10201,7 +10205,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10230,7 +10234,7 @@
         <v>138</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>140</v>
@@ -10283,7 +10287,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>80</v>
@@ -10304,7 +10308,7 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10321,11 +10325,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10347,10 +10351,10 @@
         <v>137</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>140</v>
@@ -10405,7 +10409,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>80</v>
@@ -10443,7 +10447,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10466,13 +10470,13 @@
         <v>92</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10523,7 +10527,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>91</v>
@@ -10541,27 +10545,27 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10584,13 +10588,13 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>93</v>
+        <v>273</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10641,7 +10645,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>80</v>
@@ -10662,7 +10666,7 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10679,7 +10683,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10708,7 +10712,7 @@
         <v>138</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>140</v>
@@ -10749,19 +10753,19 @@
         <v>79</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>80</v>
@@ -10782,7 +10786,7 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
@@ -10799,7 +10803,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10825,14 +10829,14 @@
         <v>111</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -10845,7 +10849,7 @@
         <v>79</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>79</v>
@@ -10860,10 +10864,10 @@
         <v>171</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10881,7 +10885,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>80</v>
@@ -10902,7 +10906,7 @@
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -10911,7 +10915,7 @@
         <v>79</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AP75" t="s" s="2">
         <v>79</v>
@@ -10919,7 +10923,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10945,14 +10949,14 @@
         <v>111</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -10965,7 +10969,7 @@
         <v>79</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>79</v>
@@ -11001,7 +11005,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>80</v>
@@ -11022,7 +11026,7 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -11039,7 +11043,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11062,19 +11066,19 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11123,7 +11127,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>80</v>
@@ -11144,7 +11148,7 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -11153,7 +11157,7 @@
         <v>79</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>79</v>
@@ -11161,7 +11165,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11184,19 +11188,19 @@
         <v>92</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11209,7 +11213,7 @@
         <v>79</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>79</v>
@@ -11245,7 +11249,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>80</v>
@@ -11266,7 +11270,7 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11275,7 +11279,7 @@
         <v>79</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>79</v>
@@ -11283,7 +11287,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11306,19 +11310,19 @@
         <v>92</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11367,7 +11371,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>80</v>
@@ -11388,7 +11392,7 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
@@ -11405,7 +11409,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11428,19 +11432,19 @@
         <v>92</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11489,7 +11493,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>80</v>
@@ -11510,7 +11514,7 @@
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
@@ -11527,7 +11531,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11550,17 +11554,17 @@
         <v>92</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>93</v>
+        <v>273</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11573,7 +11577,7 @@
         <v>79</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>79</v>
@@ -11609,7 +11613,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>80</v>
@@ -11630,7 +11634,7 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
@@ -11647,7 +11651,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11670,17 +11674,17 @@
         <v>92</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11729,7 +11733,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>80</v>
@@ -11750,7 +11754,7 @@
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
@@ -11767,7 +11771,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11790,16 +11794,16 @@
         <v>92</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11810,7 +11814,7 @@
         <v>79</v>
       </c>
       <c r="R83" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>79</v>
@@ -11828,10 +11832,10 @@
         <v>115</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>79</v>
@@ -11849,7 +11853,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>80</v>
@@ -11867,13 +11871,13 @@
         <v>79</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -11882,12 +11886,12 @@
         <v>79</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11913,13 +11917,13 @@
         <v>265</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11969,7 +11973,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>80</v>
@@ -11990,7 +11994,7 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -12007,7 +12011,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12030,13 +12034,13 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>93</v>
+        <v>273</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12087,7 +12091,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>80</v>
@@ -12108,7 +12112,7 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12125,7 +12129,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12154,7 +12158,7 @@
         <v>138</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>140</v>
@@ -12207,7 +12211,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>80</v>
@@ -12228,7 +12232,7 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
@@ -12245,11 +12249,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12271,10 +12275,10 @@
         <v>137</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>140</v>
@@ -12329,7 +12333,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>80</v>
@@ -12367,7 +12371,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12390,13 +12394,13 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12447,7 +12451,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>80</v>
@@ -12462,19 +12466,19 @@
         <v>103</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>79</v>
@@ -12485,7 +12489,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12511,13 +12515,13 @@
         <v>189</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12546,10 +12550,10 @@
         <v>207</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>79</v>
@@ -12567,7 +12571,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>80</v>
@@ -12585,10 +12589,10 @@
         <v>79</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
@@ -12600,12 +12604,12 @@
         <v>79</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12628,13 +12632,13 @@
         <v>92</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12685,7 +12689,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>80</v>
@@ -12703,13 +12707,13 @@
         <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -12718,12 +12722,12 @@
         <v>79</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12749,10 +12753,10 @@
         <v>189</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12782,10 +12786,10 @@
         <v>207</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>79</v>
@@ -12803,7 +12807,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>80</v>
@@ -12821,13 +12825,13 @@
         <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -12836,12 +12840,12 @@
         <v>79</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12867,16 +12871,16 @@
         <v>189</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -12904,10 +12908,10 @@
         <v>207</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>79</v>
@@ -12925,7 +12929,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>80</v>
@@ -12943,14 +12947,14 @@
         <v>79</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AL92" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="AM92" t="s" s="2">
-        <v>464</v>
-      </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
       </c>
@@ -12958,12 +12962,12 @@
         <v>79</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12986,13 +12990,13 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13043,7 +13047,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>80</v>
@@ -13076,12 +13080,12 @@
         <v>79</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13104,16 +13108,16 @@
         <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13163,7 +13167,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>80</v>
@@ -13181,13 +13185,13 @@
         <v>79</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
@@ -13196,7 +13200,7 @@
         <v>79</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:02:38+00:00</t>
+    <t>2022-09-27T20:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:20:50+00:00</t>
+    <t>2022-09-27T20:30:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:30:57+00:00</t>
+    <t>2022-09-27T22:49:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T22:49:39+00:00</t>
+    <t>2022-09-27T23:00:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:00:34+00:00</t>
+    <t>2022-09-27T23:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3611" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3611" uniqueCount="490">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:08:58+00:00</t>
+    <t>2022-10-27T10:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -271,10 +271,6 @@
   </si>
   <si>
     <t>Usually, this is used for documents other than those defined by FHIR.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2143,19 +2139,19 @@
         <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>79</v>
@@ -2169,7 +2165,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2180,28 +2176,28 @@
         <v>80</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2251,13 +2247,13 @@
         <v>79</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>79</v>
@@ -2289,7 +2285,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2300,25 +2296,25 @@
         <v>80</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2369,19 +2365,19 @@
         <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>79</v>
@@ -2407,7 +2403,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2418,28 +2414,28 @@
         <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2489,19 +2485,19 @@
         <v>79</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>79</v>
@@ -2527,7 +2523,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2538,7 +2534,7 @@
         <v>80</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>79</v>
@@ -2550,16 +2546,16 @@
         <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2585,43 +2581,43 @@
         <v>79</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>118</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>79</v>
@@ -2647,18 +2643,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>79</v>
@@ -2670,16 +2666,16 @@
         <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2729,28 +2725,28 @@
         <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>79</v>
@@ -2767,11 +2763,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2790,16 +2786,16 @@
         <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2849,7 +2845,7 @@
         <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>80</v>
@@ -2870,7 +2866,7 @@
         <v>79</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>79</v>
@@ -2887,11 +2883,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2910,16 +2906,16 @@
         <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2969,7 +2965,7 @@
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>80</v>
@@ -2981,7 +2977,7 @@
         <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>79</v>
@@ -2990,7 +2986,7 @@
         <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>79</v>
@@ -3007,11 +3003,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3024,25 +3020,25 @@
         <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>79</v>
@@ -3091,7 +3087,7 @@
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>80</v>
@@ -3103,7 +3099,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>79</v>
@@ -3112,7 +3108,7 @@
         <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>79</v>
@@ -3129,7 +3125,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3140,31 +3136,31 @@
         <v>80</v>
       </c>
       <c r="F11" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>79</v>
@@ -3213,45 +3209,45 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AO11" t="s" s="2">
+      <c r="AP11" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AP11" t="s" s="2">
-        <v>160</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3271,16 +3267,16 @@
         <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3331,7 +3327,7 @@
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>80</v>
@@ -3343,33 +3339,33 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AO12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AM12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AO12" t="s" s="2">
+      <c r="AP12" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AP12" t="s" s="2">
-        <v>166</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3377,31 +3373,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="I13" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3427,69 +3423,69 @@
         <v>79</v>
       </c>
       <c r="W13" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="X13" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="X13" t="s" s="2">
+      <c r="Y13" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
+      <c r="AK13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AK13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN13" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AM13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AO13" t="s" s="2">
+      <c r="AP13" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AP13" t="s" s="2">
-        <v>178</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3500,28 +3496,28 @@
         <v>80</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3547,61 +3543,61 @@
         <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AO14" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>79</v>
@@ -3609,7 +3605,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3617,31 +3613,31 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G15" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="H15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J15" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3667,71 +3663,71 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
+      <c r="AK15" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AO15" t="s" s="2">
+      <c r="AP15" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>201</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3747,19 +3743,19 @@
         <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3785,14 +3781,14 @@
         <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>79</v>
       </c>
@@ -3809,7 +3805,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>80</v>
@@ -3821,33 +3817,33 @@
         <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AO16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP16" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>213</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3858,25 +3854,25 @@
         <v>80</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J17" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3927,77 +3923,77 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AO17" t="s" s="2">
+      <c r="AP17" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>224</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J18" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -4047,34 +4043,34 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>79</v>
@@ -4085,7 +4081,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4105,19 +4101,19 @@
         <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4167,7 +4163,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>80</v>
@@ -4179,33 +4175,33 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO19" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AN19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO19" t="s" s="2">
+      <c r="AP19" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>245</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4213,14 +4209,14 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F20" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4228,16 +4224,16 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4287,45 +4283,45 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AO20" t="s" s="2">
+      <c r="AP20" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AP20" t="s" s="2">
-        <v>256</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4336,7 +4332,7 @@
         <v>80</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
@@ -4348,16 +4344,16 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4407,28 +4403,28 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
@@ -4445,7 +4441,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4465,19 +4461,19 @@
         <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4527,7 +4523,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>80</v>
@@ -4539,33 +4535,33 @@
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP22" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP22" t="s" s="2">
-        <v>271</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4576,7 +4572,7 @@
         <v>80</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>79</v>
@@ -4588,13 +4584,13 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4645,28 +4641,28 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -4683,11 +4679,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4706,16 +4702,16 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="L24" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4765,7 +4761,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>80</v>
@@ -4777,7 +4773,7 @@
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>79</v>
@@ -4786,7 +4782,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4803,11 +4799,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4820,25 +4816,25 @@
         <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="M25" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -4887,7 +4883,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>80</v>
@@ -4899,7 +4895,7 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>79</v>
@@ -4908,7 +4904,7 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -4925,7 +4921,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4933,31 +4929,31 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F26" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4983,69 +4979,69 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP26" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5053,28 +5049,28 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F27" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J27" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5125,45 +5121,45 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP27" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>301</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5174,31 +5170,31 @@
         <v>80</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5247,19 +5243,19 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
@@ -5268,24 +5264,24 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AM28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO28" t="s" s="2">
+      <c r="AP28" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>309</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5305,22 +5301,22 @@
         <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5345,14 +5341,14 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>316</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5369,7 +5365,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>80</v>
@@ -5381,33 +5377,33 @@
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AN29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO29" t="s" s="2">
+      <c r="AP29" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>321</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5415,28 +5411,28 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5475,20 +5471,20 @@
         <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5497,16 +5493,16 @@
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5523,7 +5519,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5534,7 +5530,7 @@
         <v>80</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5546,13 +5542,13 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5603,28 +5599,28 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5641,11 +5637,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5664,16 +5660,16 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K32" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="L32" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5723,7 +5719,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>80</v>
@@ -5735,7 +5731,7 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>79</v>
@@ -5744,7 +5740,7 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5761,11 +5757,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5778,25 +5774,25 @@
         <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="M33" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5845,7 +5841,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>80</v>
@@ -5857,7 +5853,7 @@
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>79</v>
@@ -5866,7 +5862,7 @@
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5883,7 +5879,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5891,28 +5887,28 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F34" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J34" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5963,45 +5959,45 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AL34" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO34" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AN34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO34" t="s" s="2">
+      <c r="AP34" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>340</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6012,28 +6008,28 @@
         <v>80</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J35" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6059,98 +6055,98 @@
         <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AL35" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP35" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>349</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6201,10 +6197,10 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6213,16 +6209,16 @@
         <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6239,7 +6235,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6250,7 +6246,7 @@
         <v>80</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>79</v>
@@ -6262,13 +6258,13 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6319,28 +6315,28 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6357,11 +6353,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6380,16 +6376,16 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K38" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="L38" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6439,7 +6435,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>80</v>
@@ -6451,7 +6447,7 @@
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>79</v>
@@ -6460,7 +6456,7 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6477,11 +6473,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6494,25 +6490,25 @@
         <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="M39" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6561,7 +6557,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>80</v>
@@ -6573,7 +6569,7 @@
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>79</v>
@@ -6582,7 +6578,7 @@
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6599,7 +6595,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6607,28 +6603,28 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F40" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J40" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6679,45 +6675,45 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AL40" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO40" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AN40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO40" t="s" s="2">
+      <c r="AP40" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>340</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6728,7 +6724,7 @@
         <v>80</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>79</v>
@@ -6740,13 +6736,13 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6797,28 +6793,28 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -6835,11 +6831,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6858,16 +6854,16 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K42" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="L42" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6905,19 +6901,19 @@
         <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AB42" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AB42" t="s" s="2">
+      <c r="AC42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD42" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AC42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>355</v>
-      </c>
       <c r="AE42" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>80</v>
@@ -6929,7 +6925,7 @@
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>79</v>
@@ -6938,7 +6934,7 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -6955,7 +6951,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6963,32 +6959,32 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G43" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="H43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J43" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -7001,73 +6997,73 @@
         <v>79</v>
       </c>
       <c r="S43" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="X43" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="T43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="X43" t="s" s="2">
+      <c r="Y43" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="Y43" t="s" s="2">
+      <c r="Z43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE43" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE43" t="s" s="2">
+      <c r="AF43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AF43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO43" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>79</v>
@@ -7075,7 +7071,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7086,29 +7082,29 @@
         <v>80</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7121,64 +7117,64 @@
         <v>79</v>
       </c>
       <c r="S44" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="T44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE44" t="s" s="2">
+      <c r="AF44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7195,7 +7191,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7203,14 +7199,14 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G45" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F45" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7218,19 +7214,19 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7279,37 +7275,37 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AF45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO45" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>79</v>
@@ -7317,7 +7313,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7328,31 +7324,31 @@
         <v>80</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J46" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7365,73 +7361,73 @@
         <v>79</v>
       </c>
       <c r="S46" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE46" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="T46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE46" t="s" s="2">
+      <c r="AF46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AF46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO46" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>79</v>
@@ -7439,7 +7435,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7450,31 +7446,31 @@
         <v>80</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J47" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7523,28 +7519,28 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7561,7 +7557,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7572,31 +7568,31 @@
         <v>80</v>
       </c>
       <c r="F48" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7645,28 +7641,28 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7683,7 +7679,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7694,29 +7690,29 @@
         <v>80</v>
       </c>
       <c r="F49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J49" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7729,64 +7725,64 @@
         <v>79</v>
       </c>
       <c r="S49" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE49" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="T49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE49" t="s" s="2">
+      <c r="AF49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7803,7 +7799,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7814,29 +7810,29 @@
         <v>80</v>
       </c>
       <c r="F50" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J50" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -7885,19 +7881,19 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>79</v>
@@ -7906,7 +7902,7 @@
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7923,7 +7919,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7931,31 +7927,31 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F51" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J51" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7966,29 +7962,29 @@
         <v>79</v>
       </c>
       <c r="R51" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="X51" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="S51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="X51" t="s" s="2">
+      <c r="Y51" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
       </c>
@@ -8005,76 +8001,76 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AL51" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP51" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>349</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G52" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="H52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J52" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8125,10 +8121,10 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8137,16 +8133,16 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8163,7 +8159,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8174,7 +8170,7 @@
         <v>80</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>79</v>
@@ -8186,13 +8182,13 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8243,28 +8239,28 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8281,11 +8277,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8304,16 +8300,16 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K54" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="L54" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8363,7 +8359,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>80</v>
@@ -8375,7 +8371,7 @@
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>79</v>
@@ -8384,7 +8380,7 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8401,11 +8397,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8418,25 +8414,25 @@
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="M55" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8485,7 +8481,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>80</v>
@@ -8497,7 +8493,7 @@
         <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>79</v>
@@ -8506,7 +8502,7 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8523,7 +8519,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8531,28 +8527,28 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F56" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J56" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8603,45 +8599,45 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AL56" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO56" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AN56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO56" t="s" s="2">
+      <c r="AP56" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="AP56" t="s" s="2">
-        <v>340</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8652,7 +8648,7 @@
         <v>80</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>79</v>
@@ -8664,13 +8660,13 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8721,28 +8717,28 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8759,11 +8755,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8782,16 +8778,16 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K58" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="L58" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8829,19 +8825,19 @@
         <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AB58" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AB58" t="s" s="2">
+      <c r="AC58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD58" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AC58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>355</v>
-      </c>
       <c r="AE58" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>80</v>
@@ -8853,7 +8849,7 @@
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>79</v>
@@ -8862,7 +8858,7 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8879,7 +8875,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8887,32 +8883,32 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G59" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="H59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I59" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G59" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J59" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -8925,73 +8921,73 @@
         <v>79</v>
       </c>
       <c r="S59" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="X59" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="T59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="X59" t="s" s="2">
+      <c r="Y59" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="Y59" t="s" s="2">
+      <c r="Z59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE59" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE59" t="s" s="2">
+      <c r="AF59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AF59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO59" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>79</v>
@@ -8999,7 +8995,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9010,29 +9006,29 @@
         <v>80</v>
       </c>
       <c r="F60" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I60" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J60" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9045,64 +9041,64 @@
         <v>79</v>
       </c>
       <c r="S60" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE60" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="T60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE60" t="s" s="2">
+      <c r="AF60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9119,7 +9115,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9127,14 +9123,14 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G61" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F61" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9142,19 +9138,19 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9203,37 +9199,37 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AF61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO61" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>79</v>
@@ -9241,7 +9237,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9252,31 +9248,31 @@
         <v>80</v>
       </c>
       <c r="F62" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I62" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J62" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9289,73 +9285,73 @@
         <v>79</v>
       </c>
       <c r="S62" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE62" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="T62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE62" t="s" s="2">
+      <c r="AF62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AF62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO62" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>79</v>
@@ -9363,7 +9359,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9374,31 +9370,31 @@
         <v>80</v>
       </c>
       <c r="F63" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I63" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J63" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9447,28 +9443,28 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9485,7 +9481,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9496,31 +9492,31 @@
         <v>80</v>
       </c>
       <c r="F64" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I64" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J64" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9569,28 +9565,28 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9607,7 +9603,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9618,29 +9614,29 @@
         <v>80</v>
       </c>
       <c r="F65" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I65" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J65" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9653,64 +9649,64 @@
         <v>79</v>
       </c>
       <c r="S65" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE65" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="T65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE65" t="s" s="2">
+      <c r="AF65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9727,7 +9723,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9738,29 +9734,29 @@
         <v>80</v>
       </c>
       <c r="F66" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I66" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J66" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9809,19 +9805,19 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>79</v>
@@ -9830,7 +9826,7 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9847,7 +9843,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9855,31 +9851,31 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I67" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F67" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J67" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9890,7 +9886,7 @@
         <v>79</v>
       </c>
       <c r="R67" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>79</v>
@@ -9905,14 +9901,14 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X67" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="Y67" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="Y67" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
       </c>
@@ -9929,48 +9925,48 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AL67" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AM67" t="s" s="2">
+      <c r="AN67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP67" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP67" t="s" s="2">
-        <v>349</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>79</v>
@@ -9980,25 +9976,25 @@
         <v>80</v>
       </c>
       <c r="F68" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G68" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G68" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10049,10 +10045,10 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10061,16 +10057,16 @@
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10087,7 +10083,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10098,7 +10094,7 @@
         <v>80</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>79</v>
@@ -10110,13 +10106,13 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10167,28 +10163,28 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10205,11 +10201,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10228,16 +10224,16 @@
         <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K70" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="L70" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10287,7 +10283,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>80</v>
@@ -10299,7 +10295,7 @@
         <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>79</v>
@@ -10308,7 +10304,7 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10325,11 +10321,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10342,25 +10338,25 @@
         <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L71" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="M71" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10409,7 +10405,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>80</v>
@@ -10421,7 +10417,7 @@
         <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>79</v>
@@ -10430,7 +10426,7 @@
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
@@ -10447,7 +10443,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10455,28 +10451,28 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I72" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F72" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J72" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="K72" t="s" s="2">
+      <c r="L72" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10527,45 +10523,45 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AL72" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AM72" t="s" s="2">
+      <c r="AN72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO72" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AN72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO72" t="s" s="2">
+      <c r="AP72" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="AP72" t="s" s="2">
-        <v>340</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10576,7 +10572,7 @@
         <v>80</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>79</v>
@@ -10588,13 +10584,13 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10645,28 +10641,28 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10683,11 +10679,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10706,16 +10702,16 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K74" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="L74" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10753,19 +10749,19 @@
         <v>79</v>
       </c>
       <c r="AA74" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AB74" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AB74" t="s" s="2">
+      <c r="AC74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD74" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AC74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>355</v>
-      </c>
       <c r="AE74" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>80</v>
@@ -10777,7 +10773,7 @@
         <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>79</v>
@@ -10786,7 +10782,7 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
@@ -10803,7 +10799,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10811,32 +10807,32 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G75" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="H75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I75" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G75" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J75" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -10849,73 +10845,73 @@
         <v>79</v>
       </c>
       <c r="S75" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="X75" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="T75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="X75" t="s" s="2">
+      <c r="Y75" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="Y75" t="s" s="2">
+      <c r="Z75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE75" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="Z75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE75" t="s" s="2">
+      <c r="AF75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AF75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL75" t="s" s="2">
+      <c r="AM75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO75" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AP75" t="s" s="2">
         <v>79</v>
@@ -10923,7 +10919,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10934,29 +10930,29 @@
         <v>80</v>
       </c>
       <c r="F76" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I76" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J76" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -10969,64 +10965,64 @@
         <v>79</v>
       </c>
       <c r="S76" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE76" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="T76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE76" t="s" s="2">
+      <c r="AF76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -11043,7 +11039,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11051,14 +11047,14 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G77" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F77" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
       </c>
@@ -11066,19 +11062,19 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11127,37 +11123,37 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL77" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AF77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL77" t="s" s="2">
+      <c r="AM77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO77" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>79</v>
@@ -11165,7 +11161,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11176,31 +11172,31 @@
         <v>80</v>
       </c>
       <c r="F78" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I78" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J78" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K78" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="K78" t="s" s="2">
+      <c r="L78" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11213,73 +11209,73 @@
         <v>79</v>
       </c>
       <c r="S78" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE78" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="T78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE78" t="s" s="2">
+      <c r="AF78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AF78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL78" t="s" s="2">
+      <c r="AM78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO78" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>79</v>
@@ -11287,7 +11283,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11298,31 +11294,31 @@
         <v>80</v>
       </c>
       <c r="F79" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I79" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J79" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="L79" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11371,28 +11367,28 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
@@ -11409,7 +11405,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11420,31 +11416,31 @@
         <v>80</v>
       </c>
       <c r="F80" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I80" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J80" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11493,28 +11489,28 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL80" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
@@ -11531,7 +11527,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11542,29 +11538,29 @@
         <v>80</v>
       </c>
       <c r="F81" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I81" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J81" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11577,64 +11573,64 @@
         <v>79</v>
       </c>
       <c r="S81" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE81" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="T81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE81" t="s" s="2">
+      <c r="AF81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL81" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
@@ -11651,7 +11647,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11662,29 +11658,29 @@
         <v>80</v>
       </c>
       <c r="F82" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I82" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J82" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="K82" t="s" s="2">
+      <c r="L82" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11733,19 +11729,19 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>79</v>
@@ -11754,7 +11750,7 @@
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
@@ -11771,7 +11767,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11779,31 +11775,31 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I83" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F83" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J83" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11814,7 +11810,7 @@
         <v>79</v>
       </c>
       <c r="R83" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>79</v>
@@ -11829,14 +11825,14 @@
         <v>79</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X83" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="Y83" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="Y83" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="Z83" t="s" s="2">
         <v>79</v>
       </c>
@@ -11853,45 +11849,45 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AL83" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AN83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP83" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP83" t="s" s="2">
-        <v>349</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11902,28 +11898,28 @@
         <v>80</v>
       </c>
       <c r="F84" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I84" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J84" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11973,19 +11969,19 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>79</v>
@@ -11994,7 +11990,7 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -12011,7 +12007,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12022,7 +12018,7 @@
         <v>80</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>79</v>
@@ -12034,13 +12030,13 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K85" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="K85" t="s" s="2">
+      <c r="L85" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12091,28 +12087,28 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL85" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12129,11 +12125,11 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12152,16 +12148,16 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K86" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K86" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="L86" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12211,7 +12207,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>80</v>
@@ -12223,7 +12219,7 @@
         <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>79</v>
@@ -12232,7 +12228,7 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
@@ -12249,11 +12245,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12266,25 +12262,25 @@
         <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L87" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="M87" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12333,7 +12329,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>80</v>
@@ -12345,7 +12341,7 @@
         <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>79</v>
@@ -12354,7 +12350,7 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
@@ -12371,7 +12367,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12394,13 +12390,13 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="K88" t="s" s="2">
+      <c r="L88" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12451,7 +12447,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>80</v>
@@ -12463,22 +12459,22 @@
         <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ88" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AK88" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AK88" t="s" s="2">
+      <c r="AL88" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AL88" t="s" s="2">
+      <c r="AM88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>79</v>
@@ -12489,7 +12485,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12512,16 +12508,16 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12547,14 +12543,14 @@
         <v>79</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="X89" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="Y89" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="Y89" t="s" s="2">
-        <v>448</v>
-      </c>
       <c r="Z89" t="s" s="2">
         <v>79</v>
       </c>
@@ -12571,7 +12567,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>80</v>
@@ -12583,33 +12579,33 @@
         <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK89" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AL89" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AL89" t="s" s="2">
+      <c r="AM89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP89" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP89" t="s" s="2">
-        <v>451</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12620,25 +12616,25 @@
         <v>80</v>
       </c>
       <c r="F90" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I90" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J90" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="K90" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="K90" t="s" s="2">
+      <c r="L90" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12689,45 +12685,45 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AL90" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="AL90" t="s" s="2">
+      <c r="AM90" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="AM90" t="s" s="2">
+      <c r="AN90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP90" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP90" t="s" s="2">
-        <v>459</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12738,7 +12734,7 @@
         <v>80</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>79</v>
@@ -12750,13 +12746,13 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12783,69 +12779,69 @@
         <v>79</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="X91" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="Y91" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="Y91" t="s" s="2">
+      <c r="Z91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK91" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="Z91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK91" t="s" s="2">
+      <c r="AL91" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="AL91" t="s" s="2">
+      <c r="AM91" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AM91" t="s" s="2">
+      <c r="AN91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP91" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP91" t="s" s="2">
-        <v>468</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12856,7 +12852,7 @@
         <v>80</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>79</v>
@@ -12868,19 +12864,19 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -12905,69 +12901,69 @@
         <v>79</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="X92" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="Y92" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="Y92" t="s" s="2">
+      <c r="Z92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP92" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP92" t="s" s="2">
-        <v>476</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12978,7 +12974,7 @@
         <v>80</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>79</v>
@@ -12990,13 +12986,13 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="K93" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="K93" t="s" s="2">
+      <c r="L93" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13047,32 +13043,32 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL93" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AL93" t="s" s="2">
+      <c r="AM93" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AM93" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
       </c>
@@ -13080,12 +13076,12 @@
         <v>79</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13108,16 +13104,16 @@
         <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="K94" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="K94" t="s" s="2">
+      <c r="L94" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13167,7 +13163,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>80</v>
@@ -13179,28 +13175,28 @@
         <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK94" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AL94" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="AL94" t="s" s="2">
+      <c r="AM94" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AM94" t="s" s="2">
+      <c r="AN94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP94" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP94" t="s" s="2">
-        <v>490</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T10:56:05+00:00</t>
+    <t>2022-11-23T04:23:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T04:23:36+00:00</t>
+    <t>2022-11-23T11:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:18:03+00:00</t>
+    <t>2022-11-23T11:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:20:15+00:00</t>
+    <t>2022-11-23T15:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T15:17:18+00:00</t>
+    <t>2022-11-28T15:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T15:39:12+00:00</t>
+    <t>2022-11-28T23:56:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T23:56:31+00:00</t>
+    <t>2022-11-29T11:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:57:57+00:00</t>
+    <t>2022-11-30T13:59:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:59:42+00:00</t>
+    <t>2022-11-30T15:11:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T15:11:20+00:00</t>
+    <t>2022-11-30T15:45:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-08T23:46:44+00:00</t>
+    <t>2023-01-09T00:16:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:19:24+00:00</t>
+    <t>2023-01-11T17:29:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
